--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt3-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt3-Fzd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Wnt3</t>
   </si>
   <si>
     <t>Fzd1</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.064096</v>
+        <v>0.09043966666666665</v>
       </c>
       <c r="H2">
-        <v>0.192288</v>
+        <v>0.271319</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6497600390834546</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6497600390834546</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6559766666666667</v>
+        <v>0.8908616666666668</v>
       </c>
       <c r="N2">
-        <v>1.96793</v>
+        <v>2.672585</v>
       </c>
       <c r="O2">
-        <v>0.030799191223283</v>
+        <v>0.04079002072021364</v>
       </c>
       <c r="P2">
-        <v>0.030799191223283</v>
+        <v>0.04079002072021363</v>
       </c>
       <c r="Q2">
-        <v>0.04204548042666666</v>
+        <v>0.08056923217944445</v>
       </c>
       <c r="R2">
-        <v>0.37840932384</v>
+        <v>0.725123089615</v>
       </c>
       <c r="S2">
-        <v>0.030799191223283</v>
+        <v>0.02650372545738093</v>
       </c>
       <c r="T2">
-        <v>0.030799191223283</v>
+        <v>0.02650372545738093</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.064096</v>
+        <v>0.09043966666666665</v>
       </c>
       <c r="H3">
-        <v>0.192288</v>
+        <v>0.271319</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6497600390834546</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.6497600390834546</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.81477433333334</v>
+        <v>16.81477433333333</v>
       </c>
       <c r="N3">
         <v>50.444323</v>
       </c>
       <c r="O3">
-        <v>0.7894815111340611</v>
+        <v>0.7699006693471485</v>
       </c>
       <c r="P3">
-        <v>0.7894815111340611</v>
+        <v>0.7699006693471484</v>
       </c>
       <c r="Q3">
-        <v>1.077759775669334</v>
+        <v>1.520722585781889</v>
       </c>
       <c r="R3">
-        <v>9.699837981024002</v>
+        <v>13.686503272037</v>
       </c>
       <c r="S3">
-        <v>0.7894815111340611</v>
+        <v>0.5002506890053811</v>
       </c>
       <c r="T3">
-        <v>0.7894815111340611</v>
+        <v>0.5002506890053809</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.064096</v>
+        <v>0.09043966666666665</v>
       </c>
       <c r="H4">
-        <v>0.192288</v>
+        <v>0.271319</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.6497600390834546</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.6497600390834546</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.232341666666667</v>
+        <v>3.879966</v>
       </c>
       <c r="N4">
-        <v>9.697025</v>
+        <v>11.639898</v>
       </c>
       <c r="O4">
-        <v>0.1517637961065464</v>
+        <v>0.1776526024808091</v>
       </c>
       <c r="P4">
-        <v>0.1517637961065464</v>
+        <v>0.1776526024808091</v>
       </c>
       <c r="Q4">
-        <v>0.2071801714666667</v>
+        <v>0.350902831718</v>
       </c>
       <c r="R4">
-        <v>1.8646215432</v>
+        <v>3.158125485462</v>
       </c>
       <c r="S4">
-        <v>0.1517637961065464</v>
+        <v>0.1154315619312079</v>
       </c>
       <c r="T4">
-        <v>0.1517637961065464</v>
+        <v>0.1154315619312079</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.064096</v>
+        <v>0.09043966666666665</v>
       </c>
       <c r="H5">
-        <v>0.192288</v>
+        <v>0.271319</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.6497600390834546</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.6497600390834546</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,524 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5954103333333333</v>
+        <v>0.2545846666666667</v>
       </c>
       <c r="N5">
-        <v>1.786231</v>
+        <v>0.763754</v>
       </c>
       <c r="O5">
-        <v>0.02795550153610952</v>
+        <v>0.01165670745182886</v>
       </c>
       <c r="P5">
-        <v>0.02795550153610952</v>
+        <v>0.01165670745182886</v>
       </c>
       <c r="Q5">
-        <v>0.03816342072533333</v>
+        <v>0.02302455239177778</v>
       </c>
       <c r="R5">
-        <v>0.343470786528</v>
+        <v>0.207220971526</v>
       </c>
       <c r="S5">
-        <v>0.02795550153610952</v>
+        <v>0.007574062689484719</v>
       </c>
       <c r="T5">
-        <v>0.02795550153610952</v>
+        <v>0.007574062689484717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.02215566666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.066467</v>
+      </c>
+      <c r="I6">
+        <v>0.1591764694612614</v>
+      </c>
+      <c r="J6">
+        <v>0.1591764694612614</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.8908616666666668</v>
+      </c>
+      <c r="N6">
+        <v>2.672585</v>
+      </c>
+      <c r="O6">
+        <v>0.04079002072021364</v>
+      </c>
+      <c r="P6">
+        <v>0.04079002072021363</v>
+      </c>
+      <c r="Q6">
+        <v>0.01973763413277778</v>
+      </c>
+      <c r="R6">
+        <v>0.177638707195</v>
+      </c>
+      <c r="S6">
+        <v>0.006492811487495306</v>
+      </c>
+      <c r="T6">
+        <v>0.006492811487495305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.02215566666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.066467</v>
+      </c>
+      <c r="I7">
+        <v>0.1591764694612614</v>
+      </c>
+      <c r="J7">
+        <v>0.1591764694612614</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>16.81477433333333</v>
+      </c>
+      <c r="N7">
+        <v>50.444323</v>
+      </c>
+      <c r="O7">
+        <v>0.7699006693471485</v>
+      </c>
+      <c r="P7">
+        <v>0.7699006693471484</v>
+      </c>
+      <c r="Q7">
+        <v>0.3725425352045555</v>
+      </c>
+      <c r="R7">
+        <v>3.352882816841</v>
+      </c>
+      <c r="S7">
+        <v>0.1225500703825411</v>
+      </c>
+      <c r="T7">
+        <v>0.1225500703825411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.02215566666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.066467</v>
+      </c>
+      <c r="I8">
+        <v>0.1591764694612614</v>
+      </c>
+      <c r="J8">
+        <v>0.1591764694612614</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3.879966</v>
+      </c>
+      <c r="N8">
+        <v>11.639898</v>
+      </c>
+      <c r="O8">
+        <v>0.1776526024808091</v>
+      </c>
+      <c r="P8">
+        <v>0.1776526024808091</v>
+      </c>
+      <c r="Q8">
+        <v>0.085963233374</v>
+      </c>
+      <c r="R8">
+        <v>0.773669100366</v>
+      </c>
+      <c r="S8">
+        <v>0.02827811405350012</v>
+      </c>
+      <c r="T8">
+        <v>0.02827811405350012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.02215566666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.066467</v>
+      </c>
+      <c r="I9">
+        <v>0.1591764694612614</v>
+      </c>
+      <c r="J9">
+        <v>0.1591764694612614</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.2545846666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.763754</v>
+      </c>
+      <c r="O9">
+        <v>0.01165670745182886</v>
+      </c>
+      <c r="P9">
+        <v>0.01165670745182886</v>
+      </c>
+      <c r="Q9">
+        <v>0.005640493013111112</v>
+      </c>
+      <c r="R9">
+        <v>0.050764437118</v>
+      </c>
+      <c r="S9">
+        <v>0.001855473537724895</v>
+      </c>
+      <c r="T9">
+        <v>0.001855473537724895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.026594</v>
+      </c>
+      <c r="H10">
+        <v>0.07978200000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.191063491455284</v>
+      </c>
+      <c r="J10">
+        <v>0.191063491455284</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.8908616666666668</v>
+      </c>
+      <c r="N10">
+        <v>2.672585</v>
+      </c>
+      <c r="O10">
+        <v>0.04079002072021364</v>
+      </c>
+      <c r="P10">
+        <v>0.04079002072021363</v>
+      </c>
+      <c r="Q10">
+        <v>0.02369157516333334</v>
+      </c>
+      <c r="R10">
+        <v>0.21322417647</v>
+      </c>
+      <c r="S10">
+        <v>0.007793483775337394</v>
+      </c>
+      <c r="T10">
+        <v>0.007793483775337392</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.026594</v>
+      </c>
+      <c r="H11">
+        <v>0.07978200000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.191063491455284</v>
+      </c>
+      <c r="J11">
+        <v>0.191063491455284</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>16.81477433333333</v>
+      </c>
+      <c r="N11">
+        <v>50.444323</v>
+      </c>
+      <c r="O11">
+        <v>0.7699006693471485</v>
+      </c>
+      <c r="P11">
+        <v>0.7699006693471484</v>
+      </c>
+      <c r="Q11">
+        <v>0.4471721086206667</v>
+      </c>
+      <c r="R11">
+        <v>4.024548977586</v>
+      </c>
+      <c r="S11">
+        <v>0.1470999099592263</v>
+      </c>
+      <c r="T11">
+        <v>0.1470999099592263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.026594</v>
+      </c>
+      <c r="H12">
+        <v>0.07978200000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.191063491455284</v>
+      </c>
+      <c r="J12">
+        <v>0.191063491455284</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.879966</v>
+      </c>
+      <c r="N12">
+        <v>11.639898</v>
+      </c>
+      <c r="O12">
+        <v>0.1776526024808091</v>
+      </c>
+      <c r="P12">
+        <v>0.1776526024808091</v>
+      </c>
+      <c r="Q12">
+        <v>0.103183815804</v>
+      </c>
+      <c r="R12">
+        <v>0.9286543422360001</v>
+      </c>
+      <c r="S12">
+        <v>0.03394292649610103</v>
+      </c>
+      <c r="T12">
+        <v>0.03394292649610102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.026594</v>
+      </c>
+      <c r="H13">
+        <v>0.07978200000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.191063491455284</v>
+      </c>
+      <c r="J13">
+        <v>0.191063491455284</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.2545846666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.763754</v>
+      </c>
+      <c r="O13">
+        <v>0.01165670745182886</v>
+      </c>
+      <c r="P13">
+        <v>0.01165670745182886</v>
+      </c>
+      <c r="Q13">
+        <v>0.006770424625333334</v>
+      </c>
+      <c r="R13">
+        <v>0.06093382162800001</v>
+      </c>
+      <c r="S13">
+        <v>0.002227171224619249</v>
+      </c>
+      <c r="T13">
+        <v>0.002227171224619249</v>
       </c>
     </row>
   </sheetData>
